--- a/folder/学生提交文件示例/通用答题卡.xlsx
+++ b/folder/学生提交文件示例/通用答题卡.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycode\examInfoPro-copy\学生提交文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycode\examInfoPro\folder\学生提交文件示例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5AABAF-D69A-44E8-9ED5-2B19DA54E229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC685DC1-656C-423A-B3EB-A0A8BF889302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>单选题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,48 +185,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>数媒19-2</t>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keep_vba和data_only该两个参数均为布尔参数，将其设置为True，即打开excel，开启并保留宏，excel中工作簿中包含公式的单元格，需读取公式结果时，则显示公式的计算结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filename: string类型，文件路径 或路径对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript&amp;jQuery应用</t>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>王海森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数媒19-1</t>
   </si>
 </sst>
 </file>
@@ -848,16 +811,14 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -889,9 +850,7 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="25" t="s">
         <v>28</v>
       </c>
@@ -901,9 +860,7 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -911,9 +868,7 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -921,9 +876,7 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -931,9 +884,7 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -941,9 +892,7 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,9 +900,7 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,9 +908,7 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -971,9 +916,7 @@
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -981,9 +924,7 @@
       <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,9 +934,7 @@
       <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
@@ -1005,9 +944,7 @@
       <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,9 +952,7 @@
       <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1025,9 +960,7 @@
       <c r="B18" s="4">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1035,9 +968,7 @@
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1047,9 +978,7 @@
       <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
@@ -1059,9 +988,7 @@
       <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
